--- a/Interface/departements-region.xlsx
+++ b/Interface/departements-region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\JobTextMining\Cyrielle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C8E4DD-EDA4-4225-B7ED-A52013DF65E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA8AE3-5212-4F14-BBF1-1346CCAEBD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="4215" windowWidth="19695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,9 +637,6 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>Provence-Alpes-Cote d'Azur</t>
-  </si>
-  <si>
     <t>Grand-Est</t>
   </si>
   <si>
@@ -674,6 +671,9 @@
   </si>
   <si>
     <t>nom_dep</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Cote d Azur</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,10 +1026,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
         <v>202</v>
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
         <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>187</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
